--- a/PREGAME/1. ELICITACION/1.6 Backlog/GNº6_Backlog_VNo4_Plantilla.xlsx
+++ b/PREGAME/1. ELICITACION/1.6 Backlog/GNº6_Backlog_VNo4_Plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caeta\Documents\6to\27837_G6_ADS\PREGAME\1. ELICITACION\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83421DE2-981A-47ED-9C82-FB72B1EF38A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE49F219-DF4F-44C5-B050-B4F2B2521184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -1817,14 +1817,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4875,8 +4875,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6462,8 +6462,8 @@
   </sheetPr>
   <dimension ref="A1:AA978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8127,8 +8127,8 @@
   </sheetPr>
   <dimension ref="A1:AA978"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9833,8 +9833,8 @@
   </sheetPr>
   <dimension ref="A1:AA977"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9946,7 +9946,7 @@
       <c r="H5" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="41" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="40" t="s">
@@ -11509,8 +11509,8 @@
   </sheetPr>
   <dimension ref="A1:AA977"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13187,8 +13187,8 @@
   </sheetPr>
   <dimension ref="A1:AA969"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14991,70 +14991,70 @@
     <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15106,7 +15106,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="42" t="s">
         <v>244</v>
       </c>
       <c r="C45" s="10">
@@ -15132,7 +15132,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="42" t="s">
         <v>249</v>
       </c>
       <c r="C46" s="10">
@@ -15158,7 +15158,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="42" t="s">
         <v>254</v>
       </c>
       <c r="C47" s="10">
@@ -15184,7 +15184,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="42" t="s">
         <v>259</v>
       </c>
       <c r="C48" s="10">
@@ -15210,7 +15210,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="42" t="s">
         <v>264</v>
       </c>
       <c r="C49" s="10">
@@ -15236,7 +15236,7 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="42" t="s">
         <v>269</v>
       </c>
       <c r="C50" s="10">
@@ -15262,7 +15262,7 @@
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="42" t="s">
         <v>274</v>
       </c>
       <c r="C51" s="10">
@@ -15288,7 +15288,7 @@
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="42" t="s">
         <v>279</v>
       </c>
       <c r="C52" s="10">
@@ -15314,7 +15314,7 @@
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="42" t="s">
         <v>284</v>
       </c>
       <c r="C53" s="10">
@@ -15340,7 +15340,7 @@
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="42" t="s">
         <v>289</v>
       </c>
       <c r="C54" s="10">
@@ -15366,7 +15366,7 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="42" t="s">
         <v>294</v>
       </c>
       <c r="C55" s="10">
@@ -15392,7 +15392,7 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="42" t="s">
         <v>299</v>
       </c>
       <c r="C56" s="10">
@@ -15418,7 +15418,7 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="42" t="s">
         <v>304</v>
       </c>
       <c r="C57" s="10">
@@ -15507,68 +15507,68 @@
     <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15620,7 +15620,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="42" t="s">
         <v>310</v>
       </c>
       <c r="C86" s="10">
@@ -15646,7 +15646,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="44" t="s">
+      <c r="B87" s="42" t="s">
         <v>315</v>
       </c>
       <c r="C87" s="10">
@@ -15672,7 +15672,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="44" t="s">
+      <c r="B88" s="42" t="s">
         <v>320</v>
       </c>
       <c r="C88" s="10">
@@ -15698,7 +15698,7 @@
       </c>
     </row>
     <row r="89" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="44" t="s">
+      <c r="B89" s="42" t="s">
         <v>327</v>
       </c>
       <c r="C89" s="10">
@@ -15724,7 +15724,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="42" t="s">
         <v>332</v>
       </c>
       <c r="C90" s="10">
@@ -15750,7 +15750,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="44" t="s">
+      <c r="B91" s="42" t="s">
         <v>337</v>
       </c>
       <c r="C91" s="10">
@@ -15776,7 +15776,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="44" t="s">
+      <c r="B92" s="42" t="s">
         <v>343</v>
       </c>
       <c r="C92" s="10">
@@ -15802,7 +15802,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="44" t="s">
+      <c r="B93" s="42" t="s">
         <v>348</v>
       </c>
       <c r="C93" s="10">
@@ -15828,7 +15828,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="44" t="s">
+      <c r="B94" s="42" t="s">
         <v>353</v>
       </c>
       <c r="C94" s="10">
@@ -15854,7 +15854,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="44" t="s">
+      <c r="B95" s="42" t="s">
         <v>359</v>
       </c>
       <c r="C95" s="10">
@@ -15880,7 +15880,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="44" t="s">
+      <c r="B96" s="42" t="s">
         <v>364</v>
       </c>
       <c r="C96" s="10">
@@ -15906,7 +15906,7 @@
       </c>
     </row>
     <row r="97" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="44" t="s">
+      <c r="B97" s="42" t="s">
         <v>369</v>
       </c>
       <c r="C97" s="10">
@@ -15995,68 +15995,68 @@
     <row r="103" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="104" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="42"/>
-      <c r="G105" s="42"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
     </row>
     <row r="106" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="44"/>
     </row>
     <row r="107" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="42"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="42"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="44"/>
     </row>
     <row r="108" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="42"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="42"/>
-      <c r="F108" s="42"/>
-      <c r="G108" s="42"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
     </row>
     <row r="109" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="42"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="42"/>
-      <c r="G109" s="42"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
     </row>
     <row r="110" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="42"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="42"/>
-      <c r="G110" s="42"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
     </row>
     <row r="111" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="42"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="42"/>
-      <c r="F111" s="42"/>
-      <c r="G111" s="42"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
     </row>
     <row r="112" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="42"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="42"/>
-      <c r="F112" s="42"/>
-      <c r="G112" s="42"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="44"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
     </row>
     <row r="113" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16107,7 +16107,7 @@
       </c>
     </row>
     <row r="125" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="44" t="s">
+      <c r="B125" s="42" t="s">
         <v>375</v>
       </c>
       <c r="C125" s="10">
@@ -16133,7 +16133,7 @@
       </c>
     </row>
     <row r="126" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="44" t="s">
+      <c r="B126" s="42" t="s">
         <v>380</v>
       </c>
       <c r="C126" s="10">
@@ -16159,7 +16159,7 @@
       </c>
     </row>
     <row r="127" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="44" t="s">
+      <c r="B127" s="42" t="s">
         <v>385</v>
       </c>
       <c r="C127" s="10">
@@ -16185,7 +16185,7 @@
       </c>
     </row>
     <row r="128" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="44" t="s">
+      <c r="B128" s="42" t="s">
         <v>391</v>
       </c>
       <c r="C128" s="10">
@@ -16211,7 +16211,7 @@
       </c>
     </row>
     <row r="129" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="44" t="s">
+      <c r="B129" s="42" t="s">
         <v>396</v>
       </c>
       <c r="C129" s="10">
@@ -16237,7 +16237,7 @@
       </c>
     </row>
     <row r="130" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="44" t="s">
+      <c r="B130" s="42" t="s">
         <v>401</v>
       </c>
       <c r="C130" s="10">
@@ -16263,7 +16263,7 @@
       </c>
     </row>
     <row r="131" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="44" t="s">
+      <c r="B131" s="42" t="s">
         <v>407</v>
       </c>
       <c r="C131" s="10">
@@ -16289,7 +16289,7 @@
       </c>
     </row>
     <row r="132" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="44" t="s">
+      <c r="B132" s="42" t="s">
         <v>412</v>
       </c>
       <c r="C132" s="10">
@@ -16315,7 +16315,7 @@
       </c>
     </row>
     <row r="133" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="44" t="s">
+      <c r="B133" s="42" t="s">
         <v>417</v>
       </c>
       <c r="C133" s="10">
@@ -16341,7 +16341,7 @@
       </c>
     </row>
     <row r="134" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="44" t="s">
+      <c r="B134" s="42" t="s">
         <v>424</v>
       </c>
       <c r="C134" s="10">
@@ -16367,7 +16367,7 @@
       </c>
     </row>
     <row r="135" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="44" t="s">
+      <c r="B135" s="42" t="s">
         <v>429</v>
       </c>
       <c r="C135" s="10">
@@ -16393,7 +16393,7 @@
       </c>
     </row>
     <row r="136" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="44" t="s">
+      <c r="B136" s="42" t="s">
         <v>434</v>
       </c>
       <c r="C136" s="10">
@@ -16482,68 +16482,68 @@
     <row r="142" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="144" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="41"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="42"/>
-      <c r="E144" s="42"/>
-      <c r="F144" s="42"/>
-      <c r="G144" s="42"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="44"/>
+      <c r="E144" s="44"/>
+      <c r="F144" s="44"/>
+      <c r="G144" s="44"/>
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="42"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="42"/>
-      <c r="E145" s="42"/>
-      <c r="F145" s="42"/>
-      <c r="G145" s="42"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="44"/>
+      <c r="E145" s="44"/>
+      <c r="F145" s="44"/>
+      <c r="G145" s="44"/>
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="42"/>
-      <c r="C146" s="42"/>
-      <c r="D146" s="42"/>
-      <c r="E146" s="42"/>
-      <c r="F146" s="42"/>
-      <c r="G146" s="42"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="44"/>
+      <c r="E146" s="44"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="44"/>
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="42"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="42"/>
-      <c r="E147" s="42"/>
-      <c r="F147" s="42"/>
-      <c r="G147" s="42"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="44"/>
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="42"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="42"/>
-      <c r="E148" s="42"/>
-      <c r="F148" s="42"/>
-      <c r="G148" s="42"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="44"/>
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="42"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="42"/>
-      <c r="E149" s="42"/>
-      <c r="F149" s="42"/>
-      <c r="G149" s="42"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="44"/>
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="42"/>
-      <c r="C150" s="42"/>
-      <c r="D150" s="42"/>
-      <c r="E150" s="42"/>
-      <c r="F150" s="42"/>
-      <c r="G150" s="42"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="44"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="44"/>
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="42"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="42"/>
-      <c r="E151" s="42"/>
-      <c r="F151" s="42"/>
-      <c r="G151" s="42"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="44"/>
+      <c r="E151" s="44"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="44"/>
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16594,7 +16594,7 @@
       </c>
     </row>
     <row r="164" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="44" t="s">
+      <c r="B164" s="42" t="s">
         <v>441</v>
       </c>
       <c r="C164" s="10">
@@ -16620,7 +16620,7 @@
       </c>
     </row>
     <row r="165" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="44" t="s">
+      <c r="B165" s="42" t="s">
         <v>446</v>
       </c>
       <c r="C165" s="10">
@@ -16646,7 +16646,7 @@
       </c>
     </row>
     <row r="166" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="44" t="s">
+      <c r="B166" s="42" t="s">
         <v>451</v>
       </c>
       <c r="C166" s="10">
@@ -16672,7 +16672,7 @@
       </c>
     </row>
     <row r="167" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="44" t="s">
+      <c r="B167" s="42" t="s">
         <v>457</v>
       </c>
       <c r="C167" s="10">
@@ -16698,7 +16698,7 @@
       </c>
     </row>
     <row r="168" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="44" t="s">
+      <c r="B168" s="42" t="s">
         <v>462</v>
       </c>
       <c r="C168" s="10">
@@ -16724,7 +16724,7 @@
       </c>
     </row>
     <row r="169" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="44" t="s">
+      <c r="B169" s="42" t="s">
         <v>467</v>
       </c>
       <c r="C169" s="10">
@@ -16813,68 +16813,68 @@
     <row r="175" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="176" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="41"/>
-      <c r="C177" s="42"/>
-      <c r="D177" s="42"/>
-      <c r="E177" s="42"/>
-      <c r="F177" s="42"/>
-      <c r="G177" s="42"/>
+      <c r="B177" s="43"/>
+      <c r="C177" s="44"/>
+      <c r="D177" s="44"/>
+      <c r="E177" s="44"/>
+      <c r="F177" s="44"/>
+      <c r="G177" s="44"/>
     </row>
     <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="42"/>
-      <c r="C178" s="42"/>
-      <c r="D178" s="42"/>
-      <c r="E178" s="42"/>
-      <c r="F178" s="42"/>
-      <c r="G178" s="42"/>
+      <c r="B178" s="44"/>
+      <c r="C178" s="44"/>
+      <c r="D178" s="44"/>
+      <c r="E178" s="44"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="44"/>
     </row>
     <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="42"/>
-      <c r="C179" s="42"/>
-      <c r="D179" s="42"/>
-      <c r="E179" s="42"/>
-      <c r="F179" s="42"/>
-      <c r="G179" s="42"/>
+      <c r="B179" s="44"/>
+      <c r="C179" s="44"/>
+      <c r="D179" s="44"/>
+      <c r="E179" s="44"/>
+      <c r="F179" s="44"/>
+      <c r="G179" s="44"/>
     </row>
     <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="42"/>
-      <c r="C180" s="42"/>
-      <c r="D180" s="42"/>
-      <c r="E180" s="42"/>
-      <c r="F180" s="42"/>
-      <c r="G180" s="42"/>
+      <c r="B180" s="44"/>
+      <c r="C180" s="44"/>
+      <c r="D180" s="44"/>
+      <c r="E180" s="44"/>
+      <c r="F180" s="44"/>
+      <c r="G180" s="44"/>
     </row>
     <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="42"/>
-      <c r="C181" s="42"/>
-      <c r="D181" s="42"/>
-      <c r="E181" s="42"/>
-      <c r="F181" s="42"/>
-      <c r="G181" s="42"/>
+      <c r="B181" s="44"/>
+      <c r="C181" s="44"/>
+      <c r="D181" s="44"/>
+      <c r="E181" s="44"/>
+      <c r="F181" s="44"/>
+      <c r="G181" s="44"/>
     </row>
     <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="42"/>
-      <c r="C182" s="42"/>
-      <c r="D182" s="42"/>
-      <c r="E182" s="42"/>
-      <c r="F182" s="42"/>
-      <c r="G182" s="42"/>
+      <c r="B182" s="44"/>
+      <c r="C182" s="44"/>
+      <c r="D182" s="44"/>
+      <c r="E182" s="44"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="44"/>
     </row>
     <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="42"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="42"/>
-      <c r="E183" s="42"/>
-      <c r="F183" s="42"/>
-      <c r="G183" s="42"/>
+      <c r="B183" s="44"/>
+      <c r="C183" s="44"/>
+      <c r="D183" s="44"/>
+      <c r="E183" s="44"/>
+      <c r="F183" s="44"/>
+      <c r="G183" s="44"/>
     </row>
     <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="42"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="42"/>
-      <c r="E184" s="42"/>
-      <c r="F184" s="42"/>
-      <c r="G184" s="42"/>
+      <c r="B184" s="44"/>
+      <c r="C184" s="44"/>
+      <c r="D184" s="44"/>
+      <c r="E184" s="44"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="44"/>
     </row>
     <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17681,16 +17681,16 @@
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B24:G31"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B65:G72"/>
+    <mergeCell ref="B83:I83"/>
     <mergeCell ref="B105:G112"/>
     <mergeCell ref="B122:I122"/>
     <mergeCell ref="B144:G151"/>
     <mergeCell ref="B161:I161"/>
     <mergeCell ref="B177:G184"/>
-    <mergeCell ref="B24:G31"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B65:G72"/>
-    <mergeCell ref="B83:I83"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
